--- a/web/book.xlsx
+++ b/web/book.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>เล่ม 1 School Rumble สูตรรักฉบับนักเรียน</t>
-  </si>
-  <si>
-    <t>เรื่องราวความรักสดใสวัยหวานของ ซึคาโมโต้ เท็นมะ ที่คุณต้องมาช่วยลุ้นว่าจะสมหวังหรือเปล่า</t>
-  </si>
-  <si>
-    <t>im1.jpg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>-</t>
   </si>
@@ -41,14 +32,23 @@
     <t>250 กรัม</t>
   </si>
   <si>
-    <t>Vibulkij</t>
+    <t>ศาสนาฮินดู</t>
+  </si>
+  <si>
+    <t>im24.jpg</t>
+  </si>
+  <si>
+    <t>ศาสนาฮินดู เป็นศาสนาหลักของชนชาติอินเดีย ในเรื่องของกำเนิด สิ่งสูงสุด คำสอนสำคัญ ลักษณะการดำเนินชีวิตของศาสนิก พิธีกรรม เทศกาล นิกาย และพัฒนาการของศาสนานี้ในแต่ละยุค เหมาะสำหรับนักศึกษาและประชาชนทั่วไปที่ต้องการเข้าใจความเชื่อ วิถีชีวิต และจิตวิทยาสังคมของชาวฮินดู</t>
+  </si>
+  <si>
+    <t>สำนักพิมพ์มหาวิทยาลัยเกษตรศาสตร์</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +63,45 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Thai_sans_literegular"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,15 +113,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,9 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -378,40 +419,46 @@
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:11" ht="86.4">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="E1">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
+      <c r="I1" s="4">
+        <v>39582</v>
       </c>
       <c r="J1">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" display="http://www.2ebook.com/new/library/publisher/ku/15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>